--- a/static-files/timetables/timetable(2022-first).xlsx
+++ b/static-files/timetables/timetable(2022-first).xlsx
@@ -533,10 +533,10 @@
         <v>Вторник</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="str">
-        <v>Верхняя/Нижняя</v>
+        <v/>
       </c>
       <c r="E6">
         <v>1</v>
@@ -551,7 +551,7 @@
         <v>АСОИ-211</v>
       </c>
       <c r="I6" t="str">
-        <v>701/7</v>
+        <v>233/1</v>
       </c>
     </row>
     <row r="7">
@@ -562,10 +562,10 @@
         <v/>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="str">
-        <v>Верхняя/Нижняя</v>
+        <v/>
       </c>
       <c r="E7">
         <v>1</v>
@@ -580,7 +580,7 @@
         <v>АСОИ-211</v>
       </c>
       <c r="I7" t="str">
-        <v>233/1</v>
+        <v>701/7</v>
       </c>
     </row>
     <row r="8">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="str">
-        <v>Верхняя/Нижняя</v>
+        <v/>
       </c>
       <c r="E8">
         <v>1</v>
@@ -623,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="str">
-        <v>Верхняя/Нижняя</v>
+        <v/>
       </c>
       <c r="E9">
         <v>1</v>
@@ -681,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="str">
-        <v>Верхняя/Нижняя</v>
+        <v/>
       </c>
       <c r="E11">
         <v>1</v>
@@ -710,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="str">
-        <v>Верхняя/Нижняя</v>
+        <v/>
       </c>
       <c r="E12">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v/>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="str">
         <v>Верхняя</v>
@@ -794,7 +794,7 @@
         <v/>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="str">
         <v>Верхняя</v>
@@ -855,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="str">
-        <v>Верхняя/Нижняя</v>
+        <v/>
       </c>
       <c r="E17">
         <v>4</v>
@@ -867,7 +867,7 @@
         <v>Лекция</v>
       </c>
       <c r="H17" t="str">
-        <v>АСОИ-181, АСОИ-182</v>
+        <v>АСОИ-182, АСОИ-181</v>
       </c>
       <c r="I17" t="str">
         <v>213/2</v>
@@ -884,7 +884,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="str">
-        <v>Верхняя/Нижняя</v>
+        <v/>
       </c>
       <c r="E18">
         <v>4</v>
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="str">
-        <v>Нижняя</v>
+        <v>Верхняя</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -942,7 +942,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="str">
-        <v>Верхняя</v>
+        <v>Нижняя</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="str">
-        <v>Верхняя</v>
+        <v>Нижняя</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -997,10 +997,10 @@
         <v/>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="str">
-        <v>Верхняя/Нижняя</v>
+        <v>Верхняя</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1009,13 +1009,13 @@
         <v>Системный анализ и исследование операций</v>
       </c>
       <c r="G22" t="str">
-        <v>Лекция</v>
+        <v>Лабораторная</v>
       </c>
       <c r="H22" t="str">
         <v>АСОИ-201</v>
       </c>
       <c r="I22" t="str">
-        <v>410/2</v>
+        <v>416/2</v>
       </c>
     </row>
     <row r="23">
@@ -1026,10 +1026,10 @@
         <v/>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="str">
-        <v>Нижняя</v>
+        <v/>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1038,13 +1038,13 @@
         <v>Системный анализ и исследование операций</v>
       </c>
       <c r="G23" t="str">
-        <v>Лабораторная</v>
+        <v>Лекция</v>
       </c>
       <c r="H23" t="str">
         <v>АСОИ-201</v>
       </c>
       <c r="I23" t="str">
-        <v>416/2</v>
+        <v>410/2</v>
       </c>
     </row>
     <row r="24">
@@ -1058,7 +1058,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="str">
-        <v>Верхняя/Нижняя</v>
+        <v/>
       </c>
       <c r="E24">
         <v>4</v>
@@ -1113,10 +1113,10 @@
         <v>Среда</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="str">
-        <v>Верхняя/Нижняя</v>
+        <v>Нижняя</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -1125,13 +1125,13 @@
         <v>Аппаратное и программное обеспечение ЭВМ и сетей</v>
       </c>
       <c r="G26" t="str">
-        <v>Лекция</v>
+        <v>Лабораторная</v>
       </c>
       <c r="H26" t="str">
-        <v>АСОИ-181, АСОИ-182</v>
+        <v>АСОИ-182</v>
       </c>
       <c r="I26" t="str">
-        <v>409/2</v>
+        <v>416/2</v>
       </c>
     </row>
     <row r="27">
@@ -1142,10 +1142,10 @@
         <v/>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="str">
-        <v>Нижняя</v>
+        <v/>
       </c>
       <c r="E27">
         <v>4</v>
@@ -1154,13 +1154,13 @@
         <v>Аппаратное и программное обеспечение ЭВМ и сетей</v>
       </c>
       <c r="G27" t="str">
-        <v>Лабораторная</v>
+        <v>Лекция</v>
       </c>
       <c r="H27" t="str">
-        <v>АСОИ-182</v>
+        <v>АСОИ-181, АСОИ-182</v>
       </c>
       <c r="I27" t="str">
-        <v>416/2</v>
+        <v>409/2</v>
       </c>
     </row>
     <row r="28">
@@ -1174,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="str">
-        <v>Верхняя/Нижняя</v>
+        <v/>
       </c>
       <c r="E28">
         <v>4</v>
@@ -1203,7 +1203,7 @@
         <v>4</v>
       </c>
       <c r="D29" t="str">
-        <v>Нижняя</v>
+        <v>Верхняя</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -1232,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="str">
-        <v>Верхняя</v>
+        <v>Нижняя</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -1261,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="str">
-        <v>Верхняя</v>
+        <v>Нижняя</v>
       </c>
       <c r="E31">
         <v>4</v>
@@ -1287,10 +1287,10 @@
         <v/>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="str">
-        <v>Нижняя</v>
+        <v>Верхняя</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -1305,7 +1305,7 @@
         <v>АСОИ-181</v>
       </c>
       <c r="I32" t="str">
-        <v>518/2</v>
+        <v>519/2</v>
       </c>
     </row>
     <row r="33">
@@ -1316,10 +1316,10 @@
         <v/>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="str">
-        <v>Нижняя</v>
+        <v>Верхняя</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -1334,7 +1334,7 @@
         <v>АСОИ-181</v>
       </c>
       <c r="I33" t="str">
-        <v>519/2</v>
+        <v>518/2</v>
       </c>
     </row>
     <row r="34">
@@ -1348,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="str">
-        <v>Верхняя</v>
+        <v>Нижняя</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -1371,13 +1371,13 @@
         <v>Выговская Н.В.</v>
       </c>
       <c r="B35" t="str">
-        <v/>
+        <v>Вторник</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35" t="str">
-        <v>Верхняя/Нижняя</v>
+        <v/>
       </c>
       <c r="E35">
         <v>4</v>
@@ -1493,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="str">
-        <v>Верхняя/Нижняя</v>
+        <v/>
       </c>
       <c r="E39">
         <v>4</v>
@@ -1580,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="str">
-        <v>Верхняя/Нижняя</v>
+        <v/>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1609,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="str">
-        <v>Верхняя/Нижняя</v>
+        <v/>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="str">
-        <v>Верхняя/Нижняя</v>
+        <v/>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1667,7 +1667,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="str">
-        <v>Верхняя/Нижняя</v>
+        <v/>
       </c>
       <c r="E45">
         <v>2</v>
@@ -1722,7 +1722,7 @@
         <v/>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="str">
         <v>Нижняя</v>
@@ -1751,7 +1751,7 @@
         <v/>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="str">
         <v>Нижняя</v>
@@ -1841,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="str">
-        <v>Верхняя/Нижняя</v>
+        <v/>
       </c>
       <c r="E51">
         <v>3</v>
@@ -1870,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="str">
-        <v>Верхняя/Нижняя</v>
+        <v/>
       </c>
       <c r="E52">
         <v>3</v>
@@ -1925,7 +1925,7 @@
         <v/>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" t="str">
         <v>Верхняя</v>
@@ -1954,7 +1954,7 @@
         <v/>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" t="str">
         <v>Верхняя</v>
